--- a/bd/Banco.xlsx
+++ b/bd/Banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jpt\jptpgm\dev_back\project-sa\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E90B97-6E3D-4736-A468-C30BC942524A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326109BE-5317-4190-B65F-E83580CA47B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7961C921-66FA-4D75-BECB-68576E829510}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="68">
   <si>
     <t>nome</t>
   </si>
@@ -63,30 +63,18 @@
     <t>rg</t>
   </si>
   <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>dataRegistro</t>
   </si>
   <si>
-    <t>dsc</t>
-  </si>
-  <si>
     <t>credito</t>
   </si>
   <si>
-    <t>tam</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>refer</t>
   </si>
   <si>
-    <t>filiacao</t>
-  </si>
-  <si>
     <t>cargo</t>
   </si>
   <si>
@@ -96,17 +84,167 @@
     <t>null</t>
   </si>
   <si>
-    <t>Joao</t>
-  </si>
-  <si>
-    <t>asa</t>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>complemento</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>Aline Christina Krusinski Kogar</t>
+  </si>
+  <si>
+    <t>Aline</t>
+  </si>
+  <si>
+    <t>Aline vendedora</t>
+  </si>
+  <si>
+    <t>Neusa Moda</t>
+  </si>
+  <si>
+    <t>Vendedora</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Ana Henning </t>
+  </si>
+  <si>
+    <t>Costa e Silva</t>
+  </si>
+  <si>
+    <t>Arlete Pokrywiicki</t>
+  </si>
+  <si>
+    <t>Arlete Chique</t>
+  </si>
+  <si>
+    <t>Jonir</t>
+  </si>
+  <si>
+    <t>Glória</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Emílio Germano Riesemberg </t>
+  </si>
+  <si>
+    <t>Angela Andréia de França</t>
+  </si>
+  <si>
+    <t>0000-06-17</t>
+  </si>
+  <si>
+    <t>Comasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Adhemar Garcia </t>
+  </si>
+  <si>
+    <t>Alda Mendes Drozdek</t>
+  </si>
+  <si>
+    <t>estadoCivil</t>
+  </si>
+  <si>
+    <t>conjugue</t>
+  </si>
+  <si>
+    <t>Casada</t>
+  </si>
+  <si>
+    <t>Carol: 4796737227</t>
+  </si>
+  <si>
+    <t>R. Senador Teotônio Vilél, 86a</t>
+  </si>
+  <si>
+    <t>Aline Alissa</t>
+  </si>
+  <si>
+    <t>Salão Aline</t>
+  </si>
+  <si>
+    <t>Albertina Roder</t>
+  </si>
+  <si>
+    <t>Amiga Rosália Martins</t>
+  </si>
+  <si>
+    <t>Prontomed</t>
+  </si>
+  <si>
+    <t>Adriana Vargas Schlickmann</t>
+  </si>
+  <si>
+    <t>Adriana amiga Neusa</t>
+  </si>
+  <si>
+    <t>Rua Maria Rosalina Speck, 268</t>
+  </si>
+  <si>
+    <t>Valério</t>
+  </si>
+  <si>
+    <t>Arlene Medeiros Fistarol</t>
+  </si>
+  <si>
+    <t>Do lar e Ferramentaria</t>
+  </si>
+  <si>
+    <t>Ana Mendonça</t>
+  </si>
+  <si>
+    <t>Ana do Bolo</t>
+  </si>
+  <si>
+    <t>Rua Valmor Harger</t>
+  </si>
+  <si>
+    <t>pai</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>avos</t>
+  </si>
+  <si>
+    <t>irmao</t>
+  </si>
+  <si>
+    <t>filho</t>
+  </si>
+  <si>
+    <t>parentes</t>
+  </si>
+  <si>
+    <t>observação</t>
+  </si>
+  <si>
+    <t>tamanho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +258,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,9 +300,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,8 +324,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{25A1D254-8ABE-4944-8585-5CED48D85909}" name="Tabela4" displayName="Tabela4" ref="Q466:Q467" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="Q466:Q467" xr:uid="{BFF5F03D-57D8-44B8-9CF3-1630AA238ED5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{25A1D254-8ABE-4944-8585-5CED48D85909}" name="Tabela4" displayName="Tabela4" ref="P465:P466" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="P465:P466" xr:uid="{BFF5F03D-57D8-44B8-9CF3-1630AA238ED5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68C82550-085A-4F64-88F2-5CFBB7732A70}" name="Coluna1"/>
   </tableColumns>
@@ -475,21 +630,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2EE567-6B8F-4D5E-872F-41E35CA41081}">
-  <dimension ref="A1:R466"/>
+  <dimension ref="A1:AD465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" customWidth="1"/>
+    <col min="16" max="16" width="9.6328125" customWidth="1"/>
+    <col min="19" max="19" width="22.26953125" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -521,22 +683,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
@@ -544,30 +706,1635 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>231323</v>
+        <v>10728601982</v>
+      </c>
+      <c r="E2" s="3">
+        <v>38066</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>47999087474</v>
-      </c>
-      <c r="I2">
-        <v>232332</v>
-      </c>
-    </row>
-    <row r="466" spans="17:17" x14ac:dyDescent="0.35">
-      <c r="Q466" t="s">
-        <v>18</v>
+        <v>4730264531</v>
+      </c>
+      <c r="H2">
+        <v>47999680479</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4">
+        <v>44165</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20424</v>
+      </c>
+      <c r="G3">
+        <v>4731219660</v>
+      </c>
+      <c r="H3">
+        <v>47996275903</v>
+      </c>
+      <c r="I3">
+        <v>6122558</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>73899755987</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4">
+        <v>4730272639</v>
+      </c>
+      <c r="H4">
+        <v>47999785311</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>48237736915</v>
+      </c>
+      <c r="E5" s="4">
+        <v>19522</v>
+      </c>
+      <c r="G5">
+        <v>4734354876</v>
+      </c>
+      <c r="H5">
+        <v>47999989235</v>
+      </c>
+      <c r="I5">
+        <v>6359493</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>89219310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>4730284056</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>4791536435</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>68390410920</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25913</v>
+      </c>
+      <c r="G8">
+        <v>4734735401</v>
+      </c>
+      <c r="H8">
+        <v>47999542740</v>
+      </c>
+      <c r="I8">
+        <v>25145731</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8">
+        <v>99542740</v>
+      </c>
+      <c r="W8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>42166560997</v>
+      </c>
+      <c r="E9" s="4">
+        <v>22629</v>
+      </c>
+      <c r="G9">
+        <v>30291787</v>
+      </c>
+      <c r="H9">
+        <v>88046042</v>
+      </c>
+      <c r="I9">
+        <v>1863759</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <v>34735751</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L174" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L175" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L177" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L181" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L183" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L184" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L186" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L187" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L190" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L191" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L193" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L198" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L201" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L203" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L204" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L207" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L212" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="215" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L216" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L218" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L225" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L230" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L236" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L239" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L245" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L256" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L265" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L267" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P465" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
